--- a/ヘッダー_単体テスト.xlsx
+++ b/ヘッダー_単体テスト.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5678B7F8-D388-4CD5-AE15-A1D1C9484240}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75C5A0D4-6EA7-4501-BD0F-C1AB36095728}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="ブログ一覧画面" sheetId="1" r:id="rId1"/>
+    <sheet name="ヘッダー画面" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="187">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -2363,6 +2363,10 @@
     <rPh sb="5" eb="6">
       <t>ト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2430,7 +2434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2447,12 +2451,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3102,8 +3100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="79" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" topLeftCell="E40" zoomScale="79" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3154,7 +3152,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>45809</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3208,8 +3206,12 @@
       <c r="F8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3242,8 +3244,12 @@
       <c r="F10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3276,8 +3282,12 @@
       <c r="F12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3310,8 +3320,12 @@
       <c r="F14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3344,8 +3358,12 @@
       <c r="F16" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3376,8 +3394,12 @@
       <c r="F18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3408,8 +3430,12 @@
       <c r="F20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3440,8 +3466,12 @@
       <c r="F22" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3459,7 +3489,9 @@
       <c r="A24" s="2">
         <v>9</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>26</v>
@@ -3470,8 +3502,12 @@
       <c r="F24" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3486,10 +3522,12 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="6">
+      <c r="A26" s="2">
         <v>10</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
         <v>27</v>
@@ -3500,8 +3538,12 @@
       <c r="F26" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3519,7 +3561,9 @@
       <c r="A28" s="2">
         <v>11</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
         <v>28</v>
@@ -3530,8 +3574,12 @@
       <c r="F28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3551,7 +3599,9 @@
       <c r="A30" s="2">
         <v>12</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
         <v>29</v>
@@ -3562,8 +3612,12 @@
       <c r="F30" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3583,7 +3637,9 @@
       <c r="A32" s="2">
         <v>13</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
         <v>62</v>
@@ -3594,8 +3650,12 @@
       <c r="F32" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3613,7 +3673,9 @@
       <c r="A34" s="2">
         <v>14</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
         <v>30</v>
@@ -3624,8 +3686,12 @@
       <c r="F34" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="G34" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3645,7 +3711,9 @@
       <c r="A36" s="2">
         <v>15</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
         <v>31</v>
@@ -3656,8 +3724,12 @@
       <c r="F36" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="G36" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3677,7 +3749,9 @@
       <c r="A38" s="2">
         <v>16</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
         <v>32</v>
@@ -3688,8 +3762,12 @@
       <c r="F38" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3722,7 +3800,9 @@
       <c r="A41" s="2">
         <v>17</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
         <v>33</v>
@@ -3733,8 +3813,12 @@
       <c r="F41" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3780,7 +3864,9 @@
       <c r="A45" s="2">
         <v>18</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
         <v>59</v>
@@ -3791,8 +3877,12 @@
       <c r="F45" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="G45" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3812,7 +3902,9 @@
       <c r="A47" s="2">
         <v>19</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
         <v>38</v>
@@ -3823,8 +3915,12 @@
       <c r="F47" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="G47" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3857,7 +3953,9 @@
       <c r="A50" s="2">
         <v>20</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
         <v>39</v>
@@ -3868,8 +3966,12 @@
       <c r="F50" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="G50" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3889,7 +3991,9 @@
       <c r="A52" s="2">
         <v>21</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
         <v>40</v>
@@ -3900,8 +4004,12 @@
       <c r="F52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="G52" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3934,7 +4042,9 @@
       <c r="A55" s="2">
         <v>22</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
         <v>34</v>
@@ -3945,8 +4055,12 @@
       <c r="F55" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="G55" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3966,7 +4080,9 @@
       <c r="A57" s="2">
         <v>23</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
         <v>60</v>
@@ -3977,8 +4093,12 @@
       <c r="F57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="G57" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3998,7 +4118,9 @@
       <c r="A59" s="2">
         <v>24</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
         <v>61</v>
@@ -4009,8 +4131,12 @@
       <c r="F59" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="G59" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4043,7 +4169,9 @@
       <c r="A62" s="2">
         <v>25</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
         <v>35</v>
@@ -4054,8 +4182,12 @@
       <c r="F62" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="G62" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4075,7 +4207,9 @@
       <c r="A64" s="2">
         <v>26</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
         <v>36</v>
@@ -4086,8 +4220,12 @@
       <c r="F64" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="G64" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4120,7 +4258,9 @@
       <c r="A67" s="2">
         <v>27</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
         <v>37</v>
@@ -4131,8 +4271,12 @@
       <c r="F67" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="G67" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4178,7 +4322,9 @@
       <c r="A71" s="2">
         <v>28</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
         <v>41</v>
@@ -4189,8 +4335,12 @@
       <c r="F71" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="G71" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4210,7 +4360,9 @@
       <c r="A73" s="2">
         <v>29</v>
       </c>
-      <c r="B73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
         <v>42</v>
@@ -4221,8 +4373,12 @@
       <c r="F73" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="G73" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4255,7 +4411,9 @@
       <c r="A76" s="2">
         <v>30</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
         <v>43</v>
@@ -4266,8 +4424,12 @@
       <c r="F76" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="G76" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4287,7 +4449,9 @@
       <c r="A78" s="2">
         <v>31</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
         <v>44</v>
@@ -4298,8 +4462,12 @@
       <c r="F78" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="G78" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4332,7 +4500,9 @@
       <c r="A81" s="2">
         <v>32</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
         <v>45</v>
@@ -4343,8 +4513,12 @@
       <c r="F81" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="G81" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4364,7 +4538,9 @@
       <c r="A83" s="2">
         <v>33</v>
       </c>
-      <c r="B83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
         <v>46</v>
@@ -4375,8 +4551,12 @@
       <c r="F83" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="G83" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4396,7 +4576,9 @@
       <c r="A85" s="2">
         <v>34</v>
       </c>
-      <c r="B85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
         <v>47</v>
@@ -4407,8 +4589,12 @@
       <c r="F85" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="G85" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4441,7 +4627,9 @@
       <c r="A88" s="2">
         <v>35</v>
       </c>
-      <c r="B88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
         <v>48</v>
@@ -4452,8 +4640,12 @@
       <c r="F88" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="G88" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4499,7 +4691,9 @@
       <c r="A92" s="2">
         <v>36</v>
       </c>
-      <c r="B92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
         <v>49</v>
@@ -4510,8 +4704,12 @@
       <c r="F92" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+      <c r="G92" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4531,7 +4729,9 @@
       <c r="A94" s="2">
         <v>37</v>
       </c>
-      <c r="B94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
         <v>50</v>
@@ -4542,8 +4742,12 @@
       <c r="F94" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+      <c r="G94" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4576,7 +4780,9 @@
       <c r="A97" s="2">
         <v>38</v>
       </c>
-      <c r="B97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
         <v>51</v>
@@ -4587,8 +4793,12 @@
       <c r="F97" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="G97" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4608,7 +4818,9 @@
       <c r="A99" s="2">
         <v>39</v>
       </c>
-      <c r="B99" s="2"/>
+      <c r="B99" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
         <v>52</v>
@@ -4619,8 +4831,12 @@
       <c r="F99" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="G99" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4653,7 +4869,9 @@
       <c r="A102" s="2">
         <v>40</v>
       </c>
-      <c r="B102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
         <v>53</v>
@@ -4664,8 +4882,12 @@
       <c r="F102" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
+      <c r="G102" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4685,7 +4907,9 @@
       <c r="A104" s="2">
         <v>41</v>
       </c>
-      <c r="B104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
         <v>54</v>
@@ -4696,8 +4920,12 @@
       <c r="F104" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+      <c r="G104" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4717,7 +4945,9 @@
       <c r="A106" s="2">
         <v>42</v>
       </c>
-      <c r="B106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
         <v>55</v>
@@ -4728,8 +4958,12 @@
       <c r="F106" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
+      <c r="G106" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4762,7 +4996,9 @@
       <c r="A109" s="2">
         <v>43</v>
       </c>
-      <c r="B109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2" t="s">
         <v>56</v>
@@ -4773,8 +5009,12 @@
       <c r="F109" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
+      <c r="G109" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4794,7 +5034,9 @@
       <c r="A111" s="2">
         <v>44</v>
       </c>
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2" t="s">
         <v>57</v>
@@ -4805,8 +5047,12 @@
       <c r="F111" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+      <c r="G111" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I111" s="2"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4839,7 +5085,9 @@
       <c r="A114" s="2">
         <v>45</v>
       </c>
-      <c r="B114" s="2"/>
+      <c r="B114" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
         <v>58</v>
@@ -4850,8 +5098,12 @@
       <c r="F114" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
+      <c r="G114" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4871,7 +5123,9 @@
       <c r="A116" s="2">
         <v>46</v>
       </c>
-      <c r="B116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
         <v>183</v>
@@ -4882,8 +5136,12 @@
       <c r="F116" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
+      <c r="G116" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4916,7 +5174,9 @@
       <c r="A119" s="2">
         <v>47</v>
       </c>
-      <c r="B119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
         <v>63</v>
@@ -4927,8 +5187,12 @@
       <c r="F119" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
+      <c r="G119" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I119" s="2"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4946,7 +5210,9 @@
       <c r="A121" s="2">
         <v>48</v>
       </c>
-      <c r="B121" s="2"/>
+      <c r="B121" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2" t="s">
         <v>64</v>
@@ -4957,8 +5223,12 @@
       <c r="F121" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
+      <c r="G121" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4966,7 +5236,7 @@
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="7" t="s">
+      <c r="E122" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F122" s="2"/>
